--- a/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T14:06:21+00:00</t>
+    <t>2023-03-07T10:12:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T10:12:47+00:00</t>
+    <t>2023-03-07T10:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T10:15:46+00:00</t>
+    <t>2023-03-07T11:05:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T11:05:08+00:00</t>
+    <t>2023-03-07T11:15:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T11:15:07+00:00</t>
+    <t>2023-03-07T11:33:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T11:33:22+00:00</t>
+    <t>2023-03-07T11:34:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T11:34:06+00:00</t>
+    <t>2023-03-07T12:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T12:11:05+00:00</t>
+    <t>2023-03-07T14:32:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:32:58+00:00</t>
+    <t>2023-03-07T14:40:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:40:09+00:00</t>
+    <t>2023-03-07T14:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:56:30+00:00</t>
+    <t>2023-03-07T15:06:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T15:06:57+00:00</t>
+    <t>2023-03-07T15:46:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T15:46:47+00:00</t>
+    <t>2023-03-07T15:55:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T15:55:51+00:00</t>
+    <t>2023-03-07T16:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:02:22+00:00</t>
+    <t>2023-03-07T16:10:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:10:56+00:00</t>
+    <t>2023-03-07T16:20:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:20:26+00:00</t>
+    <t>2023-03-07T16:27:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:27:46+00:00</t>
+    <t>2023-03-07T16:36:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:36:29+00:00</t>
+    <t>2023-03-07T16:37:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:37:52+00:00</t>
+    <t>2023-03-07T16:59:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
+++ b/branches/update-identifiers/ValueSet-vs-hiv-recency-test.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:59:55+00:00</t>
+    <t>2023-03-07T17:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
